--- a/GLead.xlsx
+++ b/GLead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TransitusNexGen15\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F9AB6F-27F7-47C3-B57C-85EC8C8EE271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF98143-58E9-4314-AD6B-4AADD801FA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
 </sst>
 </file>
@@ -301,7 +304,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0">
-  <autoFilter ref="A1:K33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:K33" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -606,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,8 +694,11 @@
       <c r="I2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -700,7 +712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -714,7 +726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -728,7 +740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>30</v>
       </c>
@@ -742,7 +754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>34</v>
       </c>
@@ -753,7 +765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>37</v>
       </c>
@@ -764,7 +776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>40</v>
       </c>
@@ -775,7 +787,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>43</v>
       </c>
@@ -786,7 +798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>46</v>
       </c>
@@ -797,7 +809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>49</v>
       </c>
@@ -834,7 +846,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>18</v>
       </c>
@@ -848,7 +860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>22</v>
       </c>
@@ -862,7 +874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>26</v>
       </c>
@@ -876,7 +888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>30</v>
       </c>
@@ -890,7 +902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>34</v>
       </c>
@@ -901,7 +913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>37</v>
       </c>
@@ -912,7 +924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>40</v>
       </c>
@@ -949,7 +961,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>19</v>
       </c>
@@ -986,7 +998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +1012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>22</v>
       </c>
@@ -1014,7 +1026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>26</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>30</v>
       </c>
@@ -1042,7 +1054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>34</v>
       </c>
@@ -1053,7 +1065,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>37</v>
       </c>
@@ -1064,7 +1076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>40</v>
       </c>
@@ -1075,7 +1087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>43</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>46</v>
       </c>
@@ -1097,7 +1109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>49</v>
       </c>
